--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H2">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I2">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J2">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N2">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q2">
-        <v>279.9140178708012</v>
+        <v>281.3126414700049</v>
       </c>
       <c r="R2">
-        <v>279.9140178708012</v>
+        <v>2531.813773230044</v>
       </c>
       <c r="S2">
-        <v>0.1354408755247913</v>
+        <v>0.1108086485242603</v>
       </c>
       <c r="T2">
-        <v>0.1354408755247913</v>
+        <v>0.1108086485242603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H3">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I3">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J3">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N3">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q3">
-        <v>271.2587602061255</v>
+        <v>282.1433657849796</v>
       </c>
       <c r="R3">
-        <v>271.2587602061255</v>
+        <v>2539.290292064816</v>
       </c>
       <c r="S3">
-        <v>0.1312528906395991</v>
+        <v>0.1111358696479096</v>
       </c>
       <c r="T3">
-        <v>0.1312528906395991</v>
+        <v>0.1111358696479096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H4">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I4">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J4">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N4">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q4">
-        <v>187.5801500622672</v>
+        <v>199.3945151408869</v>
       </c>
       <c r="R4">
-        <v>187.5801500622672</v>
+        <v>1794.550636267982</v>
       </c>
       <c r="S4">
-        <v>0.09076365645693303</v>
+        <v>0.07854121531992256</v>
       </c>
       <c r="T4">
-        <v>0.09076365645693303</v>
+        <v>0.07854121531992254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H5">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I5">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J5">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N5">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q5">
-        <v>136.3871566803536</v>
+        <v>306.6411530199817</v>
       </c>
       <c r="R5">
-        <v>136.3871566803536</v>
+        <v>2759.770377179836</v>
       </c>
       <c r="S5">
-        <v>0.06599310763939739</v>
+        <v>0.1207855131234408</v>
       </c>
       <c r="T5">
-        <v>0.06599310763939739</v>
+        <v>0.1207855131234408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H6">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I6">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J6">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N6">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q6">
-        <v>9.245436975612902</v>
+        <v>10.17748849584556</v>
       </c>
       <c r="R6">
-        <v>9.245436975612902</v>
+        <v>91.59739646260999</v>
       </c>
       <c r="S6">
-        <v>0.00447355258629551</v>
+        <v>0.004008898212688745</v>
       </c>
       <c r="T6">
-        <v>0.00447355258629551</v>
+        <v>0.004008898212688746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N7">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q7">
-        <v>57.43337131000166</v>
+        <v>59.90375399971666</v>
       </c>
       <c r="R7">
-        <v>57.43337131000166</v>
+        <v>539.13378599745</v>
       </c>
       <c r="S7">
-        <v>0.02779005550967975</v>
+        <v>0.02359600332054797</v>
       </c>
       <c r="T7">
-        <v>0.02779005550967975</v>
+        <v>0.02359600332054797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N8">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q8">
-        <v>55.65746658389929</v>
+        <v>60.08065150686666</v>
       </c>
       <c r="R8">
-        <v>55.65746658389929</v>
+        <v>540.7258635618</v>
       </c>
       <c r="S8">
-        <v>0.02693075559757982</v>
+        <v>0.02366568299648493</v>
       </c>
       <c r="T8">
-        <v>0.02693075559757982</v>
+        <v>0.02366568299648493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N9">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q9">
-        <v>38.48810606507259</v>
+        <v>42.45980529519166</v>
       </c>
       <c r="R9">
-        <v>38.48810606507259</v>
+        <v>382.138247656725</v>
       </c>
       <c r="S9">
-        <v>0.01862308584041884</v>
+        <v>0.01672485678843936</v>
       </c>
       <c r="T9">
-        <v>0.01862308584041884</v>
+        <v>0.01672485678843936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J10">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N10">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q10">
-        <v>27.98421554991093</v>
+        <v>65.29730089878332</v>
       </c>
       <c r="R10">
-        <v>27.98421554991093</v>
+        <v>587.67570808905</v>
       </c>
       <c r="S10">
-        <v>0.01354061037666162</v>
+        <v>0.02572051375674718</v>
       </c>
       <c r="T10">
-        <v>0.01354061037666162</v>
+        <v>0.02572051375674718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J11">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N11">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q11">
-        <v>1.89699900984839</v>
+        <v>2.167232030541666</v>
       </c>
       <c r="R11">
-        <v>1.89699900984839</v>
+        <v>19.505088274875</v>
       </c>
       <c r="S11">
-        <v>0.0009178933185193996</v>
+        <v>0.0008536696079063918</v>
       </c>
       <c r="T11">
-        <v>0.0009178933185193996</v>
+        <v>0.0008536696079063918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H12">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N12">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q12">
-        <v>175.3964495910116</v>
+        <v>176.1608937055213</v>
       </c>
       <c r="R12">
-        <v>175.3964495910116</v>
+        <v>1585.448043349692</v>
       </c>
       <c r="S12">
-        <v>0.08486837807283888</v>
+        <v>0.06938952495107134</v>
       </c>
       <c r="T12">
-        <v>0.08486837807283888</v>
+        <v>0.06938952495107134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H13">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N13">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q13">
-        <v>169.9729932159892</v>
+        <v>176.6811018873653</v>
       </c>
       <c r="R13">
-        <v>169.9729932159892</v>
+        <v>1590.129916986288</v>
       </c>
       <c r="S13">
-        <v>0.08224415194300433</v>
+        <v>0.06959443421245461</v>
       </c>
       <c r="T13">
-        <v>0.08224415194300433</v>
+        <v>0.06959443421245461</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H14">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I14">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J14">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N14">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q14">
-        <v>117.5392807581961</v>
+        <v>124.8629133893473</v>
       </c>
       <c r="R14">
-        <v>117.5392807581961</v>
+        <v>1123.766220504126</v>
       </c>
       <c r="S14">
-        <v>0.05687326135196381</v>
+        <v>0.04918332361878804</v>
       </c>
       <c r="T14">
-        <v>0.05687326135196381</v>
+        <v>0.04918332361878803</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H15">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I15">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J15">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N15">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q15">
-        <v>85.4613257081985</v>
+        <v>192.0218703312387</v>
       </c>
       <c r="R15">
-        <v>85.4613257081985</v>
+        <v>1728.196832981148</v>
       </c>
       <c r="S15">
-        <v>0.0413518296278051</v>
+        <v>0.07563714103752445</v>
       </c>
       <c r="T15">
-        <v>0.0413518296278051</v>
+        <v>0.07563714103752445</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H16">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I16">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J16">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N16">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O16">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P16">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q16">
-        <v>5.79326763545099</v>
+        <v>6.373248851303333</v>
       </c>
       <c r="R16">
-        <v>5.79326763545099</v>
+        <v>57.35923966172999</v>
       </c>
       <c r="S16">
-        <v>0.002803165224319296</v>
+        <v>0.002510413638830436</v>
       </c>
       <c r="T16">
-        <v>0.002803165224319296</v>
+        <v>0.002510413638830436</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H17">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N17">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O17">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P17">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q17">
-        <v>136.8758592315507</v>
+        <v>139.4262431493285</v>
       </c>
       <c r="R17">
-        <v>136.8758592315507</v>
+        <v>1254.836188343956</v>
       </c>
       <c r="S17">
-        <v>0.06622957418690655</v>
+        <v>0.05491979845434466</v>
       </c>
       <c r="T17">
-        <v>0.06622957418690655</v>
+        <v>0.05491979845434466</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H18">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I18">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J18">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N18">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P18">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q18">
-        <v>132.6435030289765</v>
+        <v>139.8379728523538</v>
       </c>
       <c r="R18">
-        <v>132.6435030289765</v>
+        <v>1258.541755671184</v>
       </c>
       <c r="S18">
-        <v>0.06418168093036369</v>
+        <v>0.05508197819753403</v>
       </c>
       <c r="T18">
-        <v>0.06418168093036369</v>
+        <v>0.05508197819753403</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H19">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I19">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J19">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N19">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O19">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P19">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q19">
-        <v>91.72528910791038</v>
+        <v>98.82537807544644</v>
       </c>
       <c r="R19">
-        <v>91.72528910791038</v>
+        <v>889.4284026790178</v>
       </c>
       <c r="S19">
-        <v>0.04438274852770749</v>
+        <v>0.038927175569559</v>
       </c>
       <c r="T19">
-        <v>0.04438274852770749</v>
+        <v>0.03892717556955898</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H20">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I20">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J20">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N20">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O20">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P20">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q20">
-        <v>66.69229858787598</v>
+        <v>151.9797465806849</v>
       </c>
       <c r="R20">
-        <v>66.69229858787598</v>
+        <v>1367.817719226164</v>
       </c>
       <c r="S20">
-        <v>0.03227013559453814</v>
+        <v>0.05986460556363197</v>
       </c>
       <c r="T20">
-        <v>0.03227013559453814</v>
+        <v>0.05986460556363196</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H21">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I21">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J21">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N21">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O21">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P21">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q21">
-        <v>4.520949467390612</v>
+        <v>5.044241802487777</v>
       </c>
       <c r="R21">
-        <v>4.520949467390612</v>
+        <v>45.39817622239</v>
       </c>
       <c r="S21">
-        <v>0.002187533724550195</v>
+        <v>0.001986919656516208</v>
       </c>
       <c r="T21">
-        <v>0.002187533724550195</v>
+        <v>0.001986919656516208</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H22">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I22">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J22">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N22">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O22">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P22">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q22">
-        <v>4.501042312320538</v>
+        <v>4.672543836077778</v>
       </c>
       <c r="R22">
-        <v>4.501042312320538</v>
+        <v>42.0528945247</v>
       </c>
       <c r="S22">
-        <v>0.002177901329101021</v>
+        <v>0.001840508357322959</v>
       </c>
       <c r="T22">
-        <v>0.002177901329101021</v>
+        <v>0.001840508357322959</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H23">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I23">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J23">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N23">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P23">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q23">
-        <v>4.361864998983113</v>
+        <v>4.68634199231111</v>
       </c>
       <c r="R23">
-        <v>4.361864998983113</v>
+        <v>42.1770779308</v>
       </c>
       <c r="S23">
-        <v>0.002110558159527036</v>
+        <v>0.00184594343139696</v>
       </c>
       <c r="T23">
-        <v>0.002110558159527036</v>
+        <v>0.00184594343139696</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H24">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I24">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J24">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N24">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O24">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P24">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q24">
-        <v>3.016305502682626</v>
+        <v>3.311900978927778</v>
       </c>
       <c r="R24">
-        <v>3.016305502682626</v>
+        <v>29.80710881035</v>
       </c>
       <c r="S24">
-        <v>0.00145948767139681</v>
+        <v>0.001304553075195847</v>
       </c>
       <c r="T24">
-        <v>0.00145948767139681</v>
+        <v>0.001304553075195847</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H25">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I25">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J25">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N25">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O25">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P25">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q25">
-        <v>2.193117614276504</v>
+        <v>5.093245088255555</v>
       </c>
       <c r="R25">
-        <v>2.193117614276504</v>
+        <v>45.8392057943</v>
       </c>
       <c r="S25">
-        <v>0.001061175042485917</v>
+        <v>0.002006221980936473</v>
       </c>
       <c r="T25">
-        <v>0.001061175042485917</v>
+        <v>0.002006221980936473</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H26">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I26">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J26">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N26">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O26">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P26">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q26">
-        <v>0.1486674491676732</v>
+        <v>0.1690459443611111</v>
       </c>
       <c r="R26">
-        <v>0.1486674491676732</v>
+        <v>1.52141349925</v>
       </c>
       <c r="S26">
-        <v>7.19351236157133E-05</v>
+        <v>6.658695654514091E-05</v>
       </c>
       <c r="T26">
-        <v>7.19351236157133E-05</v>
+        <v>6.658695654514091E-05</v>
       </c>
     </row>
   </sheetData>
